--- a/data/trans_orig/SIT_LABORAL-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/SIT_LABORAL-Estudios-trans_orig.xlsx
@@ -4838,12 +4838,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1507</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -4853,12 +4853,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -6541,12 +6541,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1809</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -6556,12 +6556,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -8596,12 +8596,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>748</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -8611,12 +8611,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -10299,12 +10299,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1105</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -10314,12 +10314,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -10412,12 +10412,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1105</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -10427,12 +10427,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -12467,12 +12467,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>965</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -12482,12 +12482,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -14283,12 +14283,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -14298,12 +14298,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">

--- a/data/trans_orig/SIT_LABORAL-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/SIT_LABORAL-Estudios-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Situación laboral en País Vasco</t>
+          <t>Situación laboral en País Vasco (tasa de respuesta: 99,07%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4417,7 +4417,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Situación laboral en Andalucia</t>
+          <t>Situación laboral en Andalucia (tasa de respuesta: 99,88%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8288,7 +8288,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Situación laboral en C.Valenciana</t>
+          <t>Situación laboral en C.Valenciana (tasa de respuesta: 99,83%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -12159,7 +12159,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Situación laboral en Barcelona</t>
+          <t>Situación laboral en Barcelona (tasa de respuesta: 99,97%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/SIT_LABORAL-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/SIT_LABORAL-Estudios-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2488</t>
+          <t>2604</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1367</t>
+          <t>1516</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4248</t>
+          <t>4311</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,32 +771,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6522</t>
+          <t>7040</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>4686</t>
+          <t>4943</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>9084</t>
+          <t>9499</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>9010</t>
+          <t>9644</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>6911</t>
+          <t>7477</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>11924</t>
+          <t>12787</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>6,3%</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>151</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -859,12 +859,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>961</t>
+          <t>752</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -874,7 +874,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>25474</t>
+          <t>22891</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>21532</t>
+          <t>19263</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>29585</t>
+          <t>26822</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>20,03%</t>
+          <t>18,96%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>16,93%</t>
+          <t>15,96%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>23,27%</t>
+          <t>22,22%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>25638</t>
+          <t>23042</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>21303</t>
+          <t>19575</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>30229</t>
+          <t>26738</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>11,93%</t>
+          <t>11,35%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>9,64%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>14,06%</t>
+          <t>13,17%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>851</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>245</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1534</t>
+          <t>1927</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -997,32 +997,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>810</t>
+          <t>969</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>395</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>1691</t>
+          <t>2148</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1032,32 +1032,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>1376</t>
+          <t>1819</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>704</t>
+          <t>938</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>2506</t>
+          <t>3169</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>1,56%</t>
         </is>
       </c>
     </row>
@@ -1075,32 +1075,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3129</t>
+          <t>3153</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1860</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4911</t>
+          <t>4971</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1110,32 +1110,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4331</t>
+          <t>3307</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2714</t>
+          <t>2077</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6590</t>
+          <t>5019</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1145,32 +1145,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>7460</t>
+          <t>6460</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>5481</t>
+          <t>4549</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>10601</t>
+          <t>8915</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>4,39%</t>
         </is>
       </c>
     </row>
@@ -1188,32 +1188,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>51147</t>
+          <t>45048</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>46946</t>
+          <t>41175</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>54829</t>
+          <t>48864</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>58,25%</t>
+          <t>54,75%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>53,46%</t>
+          <t>50,05%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>62,44%</t>
+          <t>59,39%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1223,32 +1223,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>76028</t>
+          <t>71244</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>70903</t>
+          <t>66452</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>80577</t>
+          <t>76074</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>59,79%</t>
+          <t>59,02%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>55,76%</t>
+          <t>55,05%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>63,37%</t>
+          <t>63,02%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1258,32 +1258,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>127175</t>
+          <t>116292</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>120672</t>
+          <t>110519</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>133367</t>
+          <t>122558</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>59,16%</t>
+          <t>57,29%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>56,13%</t>
+          <t>54,45%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>62,04%</t>
+          <t>60,38%</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7833</t>
+          <t>7437</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5823</t>
+          <t>5369</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10804</t>
+          <t>10267</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,3%</t>
+          <t>12,48%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1336,32 +1336,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3770</t>
+          <t>3637</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2211</t>
+          <t>2153</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6002</t>
+          <t>5825</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1371,32 +1371,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>11603</t>
+          <t>11074</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>8744</t>
+          <t>8459</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>15114</t>
+          <t>14281</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>7,04%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1414,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22481</t>
+          <t>23031</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18987</t>
+          <t>19528</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>26080</t>
+          <t>26662</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,6%</t>
+          <t>27,99%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,62%</t>
+          <t>23,74%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>29,7%</t>
+          <t>32,41%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1449,32 +1449,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>10228</t>
+          <t>11628</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7747</t>
+          <t>9062</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>13235</t>
+          <t>14913</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>10,41%</t>
+          <t>12,35%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1484,32 +1484,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>32709</t>
+          <t>34659</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>27908</t>
+          <t>29806</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>37425</t>
+          <t>39845</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>15,22%</t>
+          <t>17,07%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>12,98%</t>
+          <t>14,68%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>17,41%</t>
+          <t>19,63%</t>
         </is>
       </c>
     </row>
@@ -1527,17 +1527,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>87809</t>
+          <t>82274</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>87809</t>
+          <t>82274</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>87809</t>
+          <t>82274</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1562,17 +1562,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>127163</t>
+          <t>120716</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>127163</t>
+          <t>120716</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>127163</t>
+          <t>120716</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1597,17 +1597,17 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>214972</t>
+          <t>202990</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>214972</t>
+          <t>202990</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>214972</t>
+          <t>202990</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1644,32 +1644,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5892</t>
+          <t>5745</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4129</t>
+          <t>3984</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8259</t>
+          <t>8065</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1679,32 +1679,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>9553</t>
+          <t>10348</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>7333</t>
+          <t>7500</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>12403</t>
+          <t>13344</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1714,32 +1714,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>15445</t>
+          <t>16093</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>12271</t>
+          <t>12404</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>19561</t>
+          <t>19424</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>2,14%</t>
         </is>
       </c>
     </row>
@@ -1757,32 +1757,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>952</t>
+          <t>942</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>370</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2242</t>
+          <t>2039</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,06%</t>
+          <t>0,08%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1792,32 +1792,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>57323</t>
+          <t>55490</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>50980</t>
+          <t>49977</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>64093</t>
+          <t>61741</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>13,29%</t>
+          <t>12,49%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>11,82%</t>
+          <t>11,25%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>13,9%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1827,32 +1827,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>58274</t>
+          <t>56432</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>51939</t>
+          <t>50193</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>65547</t>
+          <t>62956</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>6,95%</t>
         </is>
       </c>
     </row>
@@ -1870,32 +1870,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>36957</t>
+          <t>47712</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>32300</t>
+          <t>41899</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>42377</t>
+          <t>54509</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>10,33%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>11,8%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1905,32 +1905,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>33985</t>
+          <t>37813</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>29499</t>
+          <t>32845</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>39568</t>
+          <t>44188</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>9,95%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1940,32 +1940,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>70943</t>
+          <t>85524</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>63936</t>
+          <t>77449</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>78423</t>
+          <t>94313</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>9,44%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>10,41%</t>
         </is>
       </c>
     </row>
@@ -1983,102 +1983,102 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12397</t>
+          <t>12215</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9641</t>
+          <t>9617</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15547</t>
+          <t>15569</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>2,64%</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2,08%</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>3,37%</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>8428</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>6367</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>11225</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1,9%</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>1,43%</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>2,53%</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>20644</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>17168</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>24846</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>2,28%</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>1,89%</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
           <t>2,74%</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>2,13%</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>3,44%</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>9566</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>7249</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>12733</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>2,22%</t>
-        </is>
-      </c>
-      <c r="O15" s="2" t="inlineStr">
-        <is>
-          <t>1,68%</t>
-        </is>
-      </c>
-      <c r="P15" s="2" t="inlineStr">
-        <is>
-          <t>2,95%</t>
-        </is>
-      </c>
-      <c r="Q15" s="2" t="inlineStr">
-        <is>
-          <t>130</t>
-        </is>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>21964</t>
-        </is>
-      </c>
-      <c r="S15" s="2" t="inlineStr">
-        <is>
-          <t>17924</t>
-        </is>
-      </c>
-      <c r="T15" s="2" t="inlineStr">
-        <is>
-          <t>26544</t>
-        </is>
-      </c>
-      <c r="U15" s="2" t="inlineStr">
-        <is>
-          <t>2,49%</t>
-        </is>
-      </c>
-      <c r="V15" s="2" t="inlineStr">
-        <is>
-          <t>2,03%</t>
-        </is>
-      </c>
-      <c r="W15" s="2" t="inlineStr">
-        <is>
-          <t>3,0%</t>
         </is>
       </c>
     </row>
@@ -2096,32 +2096,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>134494</t>
+          <t>129269</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>125990</t>
+          <t>120817</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>143428</t>
+          <t>137407</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>29,72%</t>
+          <t>27,99%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>27,84%</t>
+          <t>26,16%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>31,7%</t>
+          <t>29,75%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2131,27 +2131,27 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>104723</t>
+          <t>107331</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>96385</t>
+          <t>99388</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>112041</t>
+          <t>115361</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>24,28%</t>
+          <t>24,17%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>22,35%</t>
+          <t>22,38%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
@@ -2166,32 +2166,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>239217</t>
+          <t>236600</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>227657</t>
+          <t>226354</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>250918</t>
+          <t>248601</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>27,07%</t>
+          <t>26,12%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>25,76%</t>
+          <t>24,98%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>28,39%</t>
+          <t>27,44%</t>
         </is>
       </c>
     </row>
@@ -2209,32 +2209,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>30637</t>
+          <t>31876</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>25970</t>
+          <t>27294</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>35345</t>
+          <t>37743</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2244,32 +2244,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>30586</t>
+          <t>33342</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>26045</t>
+          <t>28689</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>35317</t>
+          <t>38565</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2279,32 +2279,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>61223</t>
+          <t>65217</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>54849</t>
+          <t>58562</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>68572</t>
+          <t>72691</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>8,02%</t>
         </is>
       </c>
     </row>
@@ -2322,32 +2322,32 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>231163</t>
+          <t>234115</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>221841</t>
+          <t>224358</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>240133</t>
+          <t>243704</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>51,09%</t>
+          <t>50,69%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>49,03%</t>
+          <t>48,58%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>53,07%</t>
+          <t>52,76%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2357,32 +2357,32 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>185567</t>
+          <t>191361</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>176627</t>
+          <t>182357</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>194525</t>
+          <t>200856</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>43,02%</t>
+          <t>43,09%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>40,95%</t>
+          <t>41,06%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>45,1%</t>
+          <t>45,23%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2392,32 +2392,32 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>416730</t>
+          <t>425476</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>402847</t>
+          <t>412281</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>429807</t>
+          <t>437311</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>47,15%</t>
+          <t>46,96%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>45,58%</t>
+          <t>45,51%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>48,63%</t>
+          <t>48,27%</t>
         </is>
       </c>
     </row>
@@ -2435,17 +2435,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>452493</t>
+          <t>461873</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>452493</t>
+          <t>461873</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>452493</t>
+          <t>461873</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2470,17 +2470,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>431304</t>
+          <t>444113</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>431304</t>
+          <t>444113</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>431304</t>
+          <t>444113</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2505,17 +2505,17 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>883796</t>
+          <t>905986</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>883796</t>
+          <t>905986</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>883796</t>
+          <t>905986</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2552,32 +2552,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1823</t>
+          <t>1566</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>820</t>
+          <t>732</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>3468</t>
+          <t>2819</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2587,32 +2587,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>3704</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>2428</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>5783</t>
+          <t>6061</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2622,32 +2622,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>5527</t>
+          <t>5675</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>3698</t>
+          <t>3915</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>7881</t>
+          <t>8282</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>2,05%</t>
         </is>
       </c>
     </row>
@@ -2665,32 +2665,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>737</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>111</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1505</t>
+          <t>2134</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,05%</t>
+          <t>0,06%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2700,32 +2700,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>6975</t>
+          <t>7053</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>4990</t>
+          <t>4962</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>9804</t>
+          <t>9735</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2735,32 +2735,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>7439</t>
+          <t>7790</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>5481</t>
+          <t>5683</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>10380</t>
+          <t>10856</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>2,69%</t>
         </is>
       </c>
     </row>
@@ -2778,32 +2778,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>8171</t>
+          <t>10047</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>6102</t>
+          <t>7488</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>10820</t>
+          <t>13221</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2813,32 +2813,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>10135</t>
+          <t>11413</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>7641</t>
+          <t>8668</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>13193</t>
+          <t>14912</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2848,22 +2848,22 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>18306</t>
+          <t>21461</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>15075</t>
+          <t>17578</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>22500</t>
+          <t>26475</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>6,55%</t>
         </is>
       </c>
     </row>
@@ -2891,32 +2891,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1851</t>
+          <t>1909</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>946</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>3474</t>
+          <t>3559</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2926,32 +2926,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>2977</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>1746</t>
+          <t>1777</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>4470</t>
+          <t>4762</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2961,32 +2961,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>4732</t>
+          <t>4886</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>3216</t>
+          <t>3191</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>6777</t>
+          <t>7006</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>1,73%</t>
         </is>
       </c>
     </row>
@@ -3004,32 +3004,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>32357</t>
+          <t>31879</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>27787</t>
+          <t>27773</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>37118</t>
+          <t>36499</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>21,3%</t>
+          <t>18,15%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>18,29%</t>
+          <t>15,81%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>24,44%</t>
+          <t>20,78%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3039,32 +3039,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>25110</t>
+          <t>29044</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>21445</t>
+          <t>25237</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>29311</t>
+          <t>33960</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>12,72%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>11,01%</t>
+          <t>11,05%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>15,04%</t>
+          <t>14,87%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3074,32 +3074,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>57467</t>
+          <t>60922</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>51406</t>
+          <t>54493</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>63367</t>
+          <t>67008</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>16,57%</t>
+          <t>15,08%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>14,83%</t>
+          <t>13,49%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>18,28%</t>
+          <t>16,59%</t>
         </is>
       </c>
     </row>
@@ -3117,32 +3117,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>6185</t>
+          <t>6605</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>4336</t>
+          <t>4489</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>8636</t>
+          <t>8988</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3152,32 +3152,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>7180</t>
+          <t>8239</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>5320</t>
+          <t>5849</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>9850</t>
+          <t>11346</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3187,32 +3187,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>13365</t>
+          <t>14843</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>10405</t>
+          <t>11667</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>16619</t>
+          <t>18552</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>4,59%</t>
         </is>
       </c>
     </row>
@@ -3230,32 +3230,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>101053</t>
+          <t>122877</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>96301</t>
+          <t>117277</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>106370</t>
+          <t>128815</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>66,52%</t>
+          <t>69,97%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>63,4%</t>
+          <t>66,78%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>70,03%</t>
+          <t>73,35%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3265,32 +3265,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>138845</t>
+          <t>165573</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>133300</t>
+          <t>159527</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>144365</t>
+          <t>171446</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>71,26%</t>
+          <t>72,49%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>68,42%</t>
+          <t>69,84%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>74,1%</t>
+          <t>75,06%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3300,32 +3300,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>239898</t>
+          <t>288449</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>232329</t>
+          <t>280017</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>247845</t>
+          <t>297307</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>69,19%</t>
+          <t>71,39%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>67,0%</t>
+          <t>69,31%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>71,48%</t>
+          <t>73,59%</t>
         </is>
       </c>
     </row>
@@ -3343,17 +3343,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>151903</t>
+          <t>175619</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>151903</t>
+          <t>175619</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>151903</t>
+          <t>175619</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3378,17 +3378,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>194831</t>
+          <t>228409</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>194831</t>
+          <t>228409</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>194831</t>
+          <t>228409</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3413,17 +3413,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>346734</t>
+          <t>404027</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>346734</t>
+          <t>404027</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>346734</t>
+          <t>404027</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3460,32 +3460,32 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>10203</t>
+          <t>9915</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>7816</t>
+          <t>7336</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>13533</t>
+          <t>12781</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3495,32 +3495,32 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>19779</t>
+          <t>21498</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>16265</t>
+          <t>18059</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>24207</t>
+          <t>26239</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3530,27 +3530,27 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>29982</t>
+          <t>31413</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>25289</t>
+          <t>27091</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>35007</t>
+          <t>36675</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
@@ -3573,32 +3573,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1580</t>
+          <t>1829</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>710</t>
+          <t>855</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3041</t>
+          <t>3692</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3608,32 +3608,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>89771</t>
+          <t>85435</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>81863</t>
+          <t>78287</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>98342</t>
+          <t>93030</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>11,92%</t>
+          <t>10,77%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>11,73%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3643,32 +3643,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>91351</t>
+          <t>87264</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>83286</t>
+          <t>79759</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>99912</t>
+          <t>95729</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>6,33%</t>
         </is>
       </c>
     </row>
@@ -3686,32 +3686,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>45695</t>
+          <t>58610</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>40254</t>
+          <t>51778</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>51543</t>
+          <t>66303</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3721,32 +3721,32 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>44930</t>
+          <t>50195</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>39689</t>
+          <t>44145</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>51153</t>
+          <t>57296</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3756,32 +3756,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>90626</t>
+          <t>108804</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>83407</t>
+          <t>100059</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>98719</t>
+          <t>118536</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>7,83%</t>
         </is>
       </c>
     </row>
@@ -3799,32 +3799,32 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>17377</t>
+          <t>17278</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>13847</t>
+          <t>14047</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>20809</t>
+          <t>21215</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -3834,32 +3834,32 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>16779</t>
+          <t>14712</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>13336</t>
+          <t>11936</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>21040</t>
+          <t>18324</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -3869,32 +3869,32 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>34156</t>
+          <t>31990</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>29026</t>
+          <t>27682</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>39658</t>
+          <t>37242</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,46%</t>
         </is>
       </c>
     </row>
@@ -3912,32 +3912,32 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>217997</t>
+          <t>206195</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>207600</t>
+          <t>196107</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>228218</t>
+          <t>216938</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>31,49%</t>
+          <t>28,65%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>29,99%</t>
+          <t>27,25%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>32,97%</t>
+          <t>30,14%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3947,32 +3947,32 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>205861</t>
+          <t>207619</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>195660</t>
+          <t>196858</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>216640</t>
+          <t>218493</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>27,33%</t>
+          <t>26,17%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>25,97%</t>
+          <t>24,82%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>28,76%</t>
+          <t>27,54%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -3982,32 +3982,32 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>423858</t>
+          <t>413814</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>409118</t>
+          <t>397955</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>440124</t>
+          <t>428832</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>29,32%</t>
+          <t>27,35%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>28,3%</t>
+          <t>26,3%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>30,45%</t>
+          <t>28,34%</t>
         </is>
       </c>
     </row>
@@ -4025,32 +4025,32 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>44655</t>
+          <t>45917</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>38605</t>
+          <t>40566</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>50699</t>
+          <t>51963</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>6,38%</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
@@ -4060,32 +4060,32 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>41536</t>
+          <t>45218</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>36366</t>
+          <t>39740</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>47080</t>
+          <t>51316</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
@@ -4095,32 +4095,32 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>86191</t>
+          <t>91135</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>78540</t>
+          <t>82988</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>94850</t>
+          <t>99744</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>6,59%</t>
         </is>
       </c>
     </row>
@@ -4138,32 +4138,32 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>354697</t>
+          <t>380023</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>343221</t>
+          <t>368771</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>365973</t>
+          <t>392263</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>51,24%</t>
+          <t>52,8%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>49,58%</t>
+          <t>51,23%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>52,87%</t>
+          <t>54,5%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -4173,32 +4173,32 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>334640</t>
+          <t>368561</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>322983</t>
+          <t>356798</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>346078</t>
+          <t>381050</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>44,42%</t>
+          <t>46,46%</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>42,88%</t>
+          <t>44,98%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>45,94%</t>
+          <t>48,04%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -4208,32 +4208,32 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>689338</t>
+          <t>748584</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>672186</t>
+          <t>729802</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>707420</t>
+          <t>765954</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>47,69%</t>
+          <t>49,48%</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>46,5%</t>
+          <t>48,24%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>48,94%</t>
+          <t>50,62%</t>
         </is>
       </c>
     </row>
@@ -4251,17 +4251,17 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>692205</t>
+          <t>719766</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>692205</t>
+          <t>719766</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>692205</t>
+          <t>719766</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -4286,17 +4286,17 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>753297</t>
+          <t>793238</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>753297</t>
+          <t>793238</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>753297</t>
+          <t>793238</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -4321,17 +4321,17 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>1445502</t>
+          <t>1513004</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>1445502</t>
+          <t>1513004</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>1445502</t>
+          <t>1513004</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -4647,12 +4647,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>17492</t>
+          <t>17289</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>31568</t>
+          <t>32194</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -4662,12 +4662,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -4682,12 +4682,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>18334</t>
+          <t>18325</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>32575</t>
+          <t>34295</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -4702,7 +4702,7 @@
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>5,46%</t>
         </is>
       </c>
     </row>
@@ -4730,7 +4730,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6165</t>
+          <t>5368</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -4760,12 +4760,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>156422</t>
+          <t>156775</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>186462</t>
+          <t>188511</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -4775,12 +4775,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>39,25%</t>
+          <t>39,34%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>46,79%</t>
+          <t>47,3%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -4795,12 +4795,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>157689</t>
+          <t>155939</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>193266</t>
+          <t>193113</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -4810,12 +4810,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>25,12%</t>
+          <t>24,84%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>30,78%</t>
+          <t>30,76%</t>
         </is>
       </c>
     </row>
@@ -4878,7 +4878,7 @@
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>15092</t>
+          <t>13351</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4893,7 +4893,7 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -4913,7 +4913,7 @@
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>14801</t>
+          <t>16204</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4928,7 +4928,7 @@
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>2,58%</t>
         </is>
       </c>
     </row>
@@ -4951,12 +4951,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13339</t>
+          <t>12902</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>31069</t>
+          <t>29795</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -4966,12 +4966,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,55%</t>
+          <t>12,99%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -4986,12 +4986,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8656</t>
+          <t>8404</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>20115</t>
+          <t>18468</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -5001,12 +5001,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -5021,12 +5021,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>25277</t>
+          <t>24637</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>45941</t>
+          <t>44594</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -5036,12 +5036,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>7,1%</t>
         </is>
       </c>
     </row>
@@ -5064,12 +5064,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>105908</t>
+          <t>106291</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>134243</t>
+          <t>134984</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -5079,12 +5079,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>46,19%</t>
+          <t>46,36%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>58,55%</t>
+          <t>58,87%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -5099,12 +5099,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>102035</t>
+          <t>102567</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>131845</t>
+          <t>130647</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -5114,12 +5114,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>25,6%</t>
+          <t>25,74%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>33,08%</t>
+          <t>32,78%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -5134,12 +5134,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>217930</t>
+          <t>214655</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>258165</t>
+          <t>257498</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -5149,12 +5149,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>34,71%</t>
+          <t>34,19%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>41,12%</t>
+          <t>41,01%</t>
         </is>
       </c>
     </row>
@@ -5177,12 +5177,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12061</t>
+          <t>12164</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>28764</t>
+          <t>29864</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -5192,12 +5192,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,54%</t>
+          <t>13,02%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -5212,12 +5212,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15249</t>
+          <t>15058</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>31601</t>
+          <t>30982</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -5227,12 +5227,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -5247,12 +5247,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>30323</t>
+          <t>30432</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>53949</t>
+          <t>55165</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -5262,12 +5262,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>8,79%</t>
         </is>
       </c>
     </row>
@@ -5290,12 +5290,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>52693</t>
+          <t>51989</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>83229</t>
+          <t>82395</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -5305,12 +5305,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>22,98%</t>
+          <t>22,67%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>36,3%</t>
+          <t>35,93%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -5325,12 +5325,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>36106</t>
+          <t>36434</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>67833</t>
+          <t>68705</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -5340,12 +5340,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>9,14%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>17,02%</t>
+          <t>17,24%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -5360,12 +5360,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>95389</t>
+          <t>95845</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>136357</t>
+          <t>138415</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -5375,12 +5375,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>15,19%</t>
+          <t>15,27%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>21,72%</t>
+          <t>22,05%</t>
         </is>
       </c>
     </row>
@@ -5520,12 +5520,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1728</t>
+          <t>1647</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>11269</t>
+          <t>10618</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -5540,7 +5540,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -5555,12 +5555,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>17850</t>
+          <t>17640</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>43379</t>
+          <t>41745</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -5570,12 +5570,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -5590,12 +5590,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>23243</t>
+          <t>21852</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>48678</t>
+          <t>47719</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -5605,12 +5605,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>1,71%</t>
         </is>
       </c>
     </row>
@@ -5638,7 +5638,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7764</t>
+          <t>7577</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -5653,7 +5653,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -5668,12 +5668,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>139930</t>
+          <t>126934</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>264659</t>
+          <t>261710</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -5683,12 +5683,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>19,09%</t>
+          <t>18,88%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -5703,12 +5703,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>155891</t>
+          <t>150484</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>259840</t>
+          <t>258995</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -5718,12 +5718,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>9,27%</t>
         </is>
       </c>
     </row>
@@ -5746,12 +5746,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>73244</t>
+          <t>79713</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>187667</t>
+          <t>187143</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -5761,12 +5761,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>13,34%</t>
+          <t>13,3%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -5781,12 +5781,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>65396</t>
+          <t>64155</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>151267</t>
+          <t>153123</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -5796,12 +5796,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>10,91%</t>
+          <t>11,04%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -5816,12 +5816,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>173538</t>
+          <t>177843</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>319631</t>
+          <t>321735</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -5831,12 +5831,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>11,44%</t>
+          <t>11,52%</t>
         </is>
       </c>
     </row>
@@ -5859,12 +5859,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>31819</t>
+          <t>32469</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>77518</t>
+          <t>79391</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5874,12 +5874,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -5894,12 +5894,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>14572</t>
+          <t>13508</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>35560</t>
+          <t>35809</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5909,12 +5909,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -5929,12 +5929,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>59439</t>
+          <t>57930</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>107110</t>
+          <t>106933</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
@@ -5972,12 +5972,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>96160</t>
+          <t>113667</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>240737</t>
+          <t>241450</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -5987,12 +5987,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>17,11%</t>
+          <t>17,16%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -6007,12 +6007,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>115662</t>
+          <t>116263</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>671821</t>
+          <t>750990</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -6022,12 +6022,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>8,39%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>48,45%</t>
+          <t>54,16%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -6042,12 +6042,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>299819</t>
+          <t>295809</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>1099657</t>
+          <t>1004747</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -6057,12 +6057,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>10,59%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>39,36%</t>
+          <t>35,97%</t>
         </is>
       </c>
     </row>
@@ -6085,12 +6085,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>75928</t>
+          <t>76230</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>178276</t>
+          <t>177718</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -6100,12 +6100,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>12,67%</t>
+          <t>12,63%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -6120,12 +6120,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>93268</t>
+          <t>90359</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>184209</t>
+          <t>179686</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -6135,12 +6135,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>13,29%</t>
+          <t>12,96%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -6155,12 +6155,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>199549</t>
+          <t>201844</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>341362</t>
+          <t>339199</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -6170,12 +6170,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>12,22%</t>
+          <t>12,14%</t>
         </is>
       </c>
     </row>
@@ -6198,12 +6198,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>754529</t>
+          <t>751858</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1115673</t>
+          <t>1092457</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -6213,12 +6213,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>53,63%</t>
+          <t>53,44%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>79,29%</t>
+          <t>77,64%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -6233,12 +6233,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>341617</t>
+          <t>340841</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>691319</t>
+          <t>683850</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -6248,12 +6248,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>24,64%</t>
+          <t>24,58%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>49,86%</t>
+          <t>49,32%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -6268,12 +6268,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>1163956</t>
+          <t>1143201</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>1763144</t>
+          <t>1756899</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -6283,12 +6283,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>41,67%</t>
+          <t>40,92%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>63,12%</t>
+          <t>62,89%</t>
         </is>
       </c>
     </row>
@@ -6428,12 +6428,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>3170</t>
+          <t>3043</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>18505</t>
+          <t>16497</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -6443,12 +6443,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -6463,12 +6463,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>4258</t>
+          <t>4317</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>14496</t>
+          <t>14233</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -6478,12 +6478,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -6498,12 +6498,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>9274</t>
+          <t>9214</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>25933</t>
+          <t>25496</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -6513,12 +6513,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>2,83%</t>
         </is>
       </c>
     </row>
@@ -6576,12 +6576,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>12026</t>
+          <t>12441</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>25376</t>
+          <t>24896</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -6591,12 +6591,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -6611,12 +6611,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>12225</t>
+          <t>12018</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>25618</t>
+          <t>26262</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -6626,12 +6626,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>2,91%</t>
         </is>
       </c>
     </row>
@@ -6654,12 +6654,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>14282</t>
+          <t>13173</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>40901</t>
+          <t>43355</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -6669,12 +6669,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>8,9%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -6689,12 +6689,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>14812</t>
+          <t>13913</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>36647</t>
+          <t>37001</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -6704,12 +6704,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -6724,12 +6724,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>33224</t>
+          <t>33134</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>68174</t>
+          <t>68852</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -6739,12 +6739,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>7,63%</t>
         </is>
       </c>
     </row>
@@ -6767,12 +6767,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1644</t>
+          <t>1747</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>12111</t>
+          <t>11031</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -6782,12 +6782,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -6802,12 +6802,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>2584</t>
+          <t>2596</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>11801</t>
+          <t>12748</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -6817,12 +6817,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -6837,12 +6837,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>5849</t>
+          <t>5583</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>17756</t>
+          <t>18782</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -6852,12 +6852,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>2,08%</t>
         </is>
       </c>
     </row>
@@ -6880,12 +6880,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>77413</t>
+          <t>79662</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>109080</t>
+          <t>109316</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -6895,12 +6895,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>16,84%</t>
+          <t>17,33%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>23,72%</t>
+          <t>23,77%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -6915,12 +6915,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>47620</t>
+          <t>47382</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>68383</t>
+          <t>68006</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -6930,12 +6930,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>10,77%</t>
+          <t>10,72%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>15,38%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -6950,12 +6950,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>133285</t>
+          <t>132426</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>169979</t>
+          <t>169724</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -6965,12 +6965,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>14,78%</t>
+          <t>14,68%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>18,85%</t>
+          <t>18,82%</t>
         </is>
       </c>
     </row>
@@ -6993,12 +6993,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>14897</t>
+          <t>14251</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>33845</t>
+          <t>32390</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -7008,12 +7008,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -7028,12 +7028,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>23727</t>
+          <t>23741</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>45647</t>
+          <t>45656</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -7063,12 +7063,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>41890</t>
+          <t>43071</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>71956</t>
+          <t>71031</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -7078,12 +7078,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>7,88%</t>
         </is>
       </c>
     </row>
@@ -7106,12 +7106,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>284796</t>
+          <t>285783</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>325871</t>
+          <t>327419</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -7121,12 +7121,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>61,94%</t>
+          <t>62,15%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>70,87%</t>
+          <t>71,21%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -7141,12 +7141,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>278189</t>
+          <t>280488</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>313820</t>
+          <t>315060</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -7156,12 +7156,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>62,93%</t>
+          <t>63,45%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>70,99%</t>
+          <t>71,27%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -7176,12 +7176,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>577825</t>
+          <t>576633</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>632690</t>
+          <t>632565</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -7191,12 +7191,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>64,07%</t>
+          <t>63,94%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>70,15%</t>
+          <t>70,14%</t>
         </is>
       </c>
     </row>
@@ -7336,12 +7336,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>7234</t>
+          <t>7622</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>25209</t>
+          <t>25091</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -7351,7 +7351,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -7371,12 +7371,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>43917</t>
+          <t>43777</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>76922</t>
+          <t>77621</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -7391,7 +7391,7 @@
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -7406,12 +7406,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>57370</t>
+          <t>56392</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>94556</t>
+          <t>93516</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -7421,12 +7421,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>2,16%</t>
         </is>
       </c>
     </row>
@@ -7449,12 +7449,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>947</t>
+          <t>1080</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>8957</t>
+          <t>9558</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -7484,12 +7484,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>303869</t>
+          <t>290531</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>460262</t>
+          <t>462812</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -7499,12 +7499,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>13,64%</t>
+          <t>13,05%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>20,67%</t>
+          <t>20,78%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -7519,12 +7519,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>323110</t>
+          <t>322052</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>462915</t>
+          <t>460101</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -7534,12 +7534,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>10,64%</t>
         </is>
       </c>
     </row>
@@ -7562,12 +7562,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>103193</t>
+          <t>101334</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>209140</t>
+          <t>210712</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -7577,12 +7577,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>9,98%</t>
+          <t>10,05%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -7597,12 +7597,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>102404</t>
+          <t>103849</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>180125</t>
+          <t>180607</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -7612,12 +7612,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -7632,12 +7632,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>233153</t>
+          <t>231421</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>365929</t>
+          <t>370490</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -7647,12 +7647,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>8,57%</t>
         </is>
       </c>
     </row>
@@ -7675,12 +7675,12 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>54733</t>
+          <t>57472</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>106619</t>
+          <t>107255</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -7690,12 +7690,12 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -7710,12 +7710,12 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>31440</t>
+          <t>29527</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>57547</t>
+          <t>56814</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -7725,12 +7725,12 @@
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -7745,12 +7745,12 @@
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>97783</t>
+          <t>100416</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>155947</t>
+          <t>154531</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -7760,12 +7760,12 @@
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>3,57%</t>
         </is>
       </c>
     </row>
@@ -7788,12 +7788,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>274948</t>
+          <t>281277</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>471864</t>
+          <t>469203</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -7803,12 +7803,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>13,12%</t>
+          <t>13,42%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>22,51%</t>
+          <t>22,38%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -7823,12 +7823,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>294716</t>
+          <t>298406</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>981489</t>
+          <t>967984</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -7838,12 +7838,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>13,4%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>44,07%</t>
+          <t>43,46%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -7858,12 +7858,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>676415</t>
+          <t>686935</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>1513709</t>
+          <t>1508292</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -7873,12 +7873,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>15,65%</t>
+          <t>15,89%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>35,01%</t>
+          <t>34,89%</t>
         </is>
       </c>
     </row>
@@ -7901,12 +7901,12 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>118668</t>
+          <t>123259</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>216713</t>
+          <t>220389</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -7916,12 +7916,12 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>10,51%</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
@@ -7936,12 +7936,12 @@
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>143875</t>
+          <t>142143</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>233796</t>
+          <t>234519</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -7951,12 +7951,12 @@
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>6,38%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>10,53%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
@@ -7971,12 +7971,12 @@
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>300534</t>
+          <t>297110</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>433823</t>
+          <t>432145</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -7986,12 +7986,12 @@
       </c>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>10,0%</t>
         </is>
       </c>
     </row>
@@ -8014,12 +8014,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>1128390</t>
+          <t>1118295</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>1534554</t>
+          <t>1508866</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -8029,12 +8029,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>53,83%</t>
+          <t>53,35%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>73,21%</t>
+          <t>71,98%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -8049,12 +8049,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>657775</t>
+          <t>654539</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>1030027</t>
+          <t>1025350</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -8064,12 +8064,12 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>29,53%</t>
+          <t>29,39%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>46,25%</t>
+          <t>46,04%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -8084,12 +8084,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>1863510</t>
+          <t>1864684</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>2520237</t>
+          <t>2484294</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -8099,12 +8099,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>43,1%</t>
+          <t>43,13%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>58,3%</t>
+          <t>57,46%</t>
         </is>
       </c>
     </row>
@@ -12359,7 +12359,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8702</t>
+          <t>7182</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -12374,7 +12374,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -12389,12 +12389,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>558</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>12474</t>
+          <t>11054</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -12404,12 +12404,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>10,36%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -12424,12 +12424,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>1556</t>
+          <t>1362</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>13013</t>
+          <t>12937</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -12439,12 +12439,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>5,91%</t>
         </is>
       </c>
     </row>
@@ -12502,12 +12502,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>24619</t>
+          <t>24912</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>42495</t>
+          <t>43371</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -12517,12 +12517,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>20,44%</t>
+          <t>20,68%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>35,28%</t>
+          <t>36,01%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -12537,12 +12537,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>24488</t>
+          <t>23552</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>44499</t>
+          <t>43885</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -12552,12 +12552,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>11,18%</t>
+          <t>10,75%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>20,32%</t>
+          <t>20,04%</t>
         </is>
       </c>
     </row>
@@ -12580,12 +12580,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>529</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2516</t>
+          <t>2400</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -12595,77 +12595,77 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>0,54%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2,44%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1185</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>447</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>3075</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0,98%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>0,37%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>2,55%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>2489</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>1332</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>1,14%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
           <t>0,61%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>2,55%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>1185</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>381</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>3040</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>0,98%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>0,32%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>2,52%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>2489</t>
-        </is>
-      </c>
-      <c r="S6" s="2" t="inlineStr">
-        <is>
-          <t>1314</t>
-        </is>
-      </c>
-      <c r="T6" s="2" t="inlineStr">
-        <is>
-          <t>4364</t>
-        </is>
-      </c>
-      <c r="U6" s="2" t="inlineStr">
-        <is>
-          <t>1,14%</t>
-        </is>
-      </c>
-      <c r="V6" s="2" t="inlineStr">
-        <is>
-          <t>0,6%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
@@ -12693,12 +12693,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7627</t>
+          <t>7949</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>24650</t>
+          <t>24319</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -12708,12 +12708,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>25,01%</t>
+          <t>24,68%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -12728,12 +12728,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5301</t>
+          <t>5381</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>19278</t>
+          <t>20344</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -12743,12 +12743,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>16,0%</t>
+          <t>16,89%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -12763,12 +12763,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>15793</t>
+          <t>15731</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>37258</t>
+          <t>36712</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -12778,12 +12778,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>17,01%</t>
+          <t>16,76%</t>
         </is>
       </c>
     </row>
@@ -12806,12 +12806,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>28519</t>
+          <t>28524</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>48682</t>
+          <t>48878</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -12826,7 +12826,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>49,4%</t>
+          <t>49,59%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -12841,12 +12841,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>43489</t>
+          <t>42341</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>63103</t>
+          <t>61988</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -12856,12 +12856,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>36,1%</t>
+          <t>35,15%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>52,39%</t>
+          <t>51,46%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -12876,12 +12876,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>77629</t>
+          <t>77585</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>106303</t>
+          <t>105460</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -12891,12 +12891,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>35,45%</t>
+          <t>35,43%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>48,54%</t>
+          <t>48,15%</t>
         </is>
       </c>
     </row>
@@ -12919,7 +12919,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7418</t>
+          <t>7428</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -12934,7 +12934,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -12954,12 +12954,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1831</t>
+          <t>1865</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7844</t>
+          <t>8209</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -12969,12 +12969,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -12989,12 +12989,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>11109</t>
+          <t>11172</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>27953</t>
+          <t>28063</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -13004,12 +13004,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>12,81%</t>
         </is>
       </c>
     </row>
@@ -13032,12 +13032,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>20161</t>
+          <t>19927</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>41100</t>
+          <t>41948</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -13047,12 +13047,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,46%</t>
+          <t>20,22%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>41,7%</t>
+          <t>42,56%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -13067,12 +13067,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>10206</t>
+          <t>10734</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>24042</t>
+          <t>23777</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -13082,12 +13082,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>19,96%</t>
+          <t>19,74%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -13102,12 +13102,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>33540</t>
+          <t>33226</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>59387</t>
+          <t>59756</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -13117,12 +13117,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>15,31%</t>
+          <t>15,17%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>27,12%</t>
+          <t>27,28%</t>
         </is>
       </c>
     </row>
@@ -13267,7 +13267,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5005</t>
+          <t>4189</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -13282,7 +13282,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -13302,7 +13302,7 @@
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>1830</t>
+          <t>2031</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -13317,7 +13317,7 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -13337,7 +13337,7 @@
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>4630</t>
+          <t>4578</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -13352,7 +13352,7 @@
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>0,64%</t>
         </is>
       </c>
     </row>
@@ -13375,12 +13375,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>356</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4745</t>
+          <t>5084</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -13395,7 +13395,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -13410,12 +13410,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>36164</t>
+          <t>36062</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>53971</t>
+          <t>54544</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -13425,12 +13425,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>10,2%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>15,22%</t>
+          <t>15,38%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -13445,12 +13445,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>37926</t>
+          <t>37487</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>56785</t>
+          <t>56299</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -13460,12 +13460,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>7,91%</t>
         </is>
       </c>
     </row>
@@ -13488,12 +13488,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>23818</t>
+          <t>24352</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>38511</t>
+          <t>37869</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -13503,12 +13503,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>10,6%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -13523,12 +13523,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>25148</t>
+          <t>25385</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>39617</t>
+          <t>39698</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -13538,12 +13538,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>11,2%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -13558,12 +13558,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>53197</t>
+          <t>53068</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>73991</t>
+          <t>73206</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -13573,12 +13573,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>10,39%</t>
+          <t>10,28%</t>
         </is>
       </c>
     </row>
@@ -13601,12 +13601,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9236</t>
+          <t>9340</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>19222</t>
+          <t>18947</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -13616,12 +13616,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -13636,12 +13636,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>9445</t>
+          <t>9204</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>19530</t>
+          <t>20393</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -13651,12 +13651,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -13671,12 +13671,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>20443</t>
+          <t>21425</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>34114</t>
+          <t>35833</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -13686,12 +13686,12 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>5,03%</t>
         </is>
       </c>
     </row>
@@ -13714,12 +13714,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>53396</t>
+          <t>53785</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>72665</t>
+          <t>72480</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -13729,12 +13729,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>15,05%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>20,34%</t>
+          <t>20,29%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -13749,12 +13749,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>53567</t>
+          <t>52396</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>72304</t>
+          <t>71940</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -13764,12 +13764,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>15,11%</t>
+          <t>14,78%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>20,39%</t>
+          <t>20,29%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -13784,12 +13784,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>111344</t>
+          <t>112296</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>137691</t>
+          <t>139560</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -13799,12 +13799,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>15,78%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>19,34%</t>
+          <t>19,61%</t>
         </is>
       </c>
     </row>
@@ -13827,12 +13827,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>39928</t>
+          <t>39073</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>59042</t>
+          <t>59039</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -13842,7 +13842,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,18%</t>
+          <t>10,94%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -13862,12 +13862,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>28230</t>
+          <t>28784</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>43670</t>
+          <t>44578</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -13877,12 +13877,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>12,32%</t>
+          <t>12,57%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -13897,12 +13897,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>72510</t>
+          <t>72501</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>96293</t>
+          <t>98689</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -13912,12 +13912,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>10,18%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>13,53%</t>
+          <t>13,86%</t>
         </is>
       </c>
     </row>
@@ -13940,12 +13940,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>185758</t>
+          <t>184797</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>211249</t>
+          <t>212679</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -13955,12 +13955,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>51,99%</t>
+          <t>51,73%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>59,13%</t>
+          <t>59,53%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -13975,12 +13975,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>154319</t>
+          <t>154593</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>180335</t>
+          <t>179994</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -13990,12 +13990,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>43,52%</t>
+          <t>43,6%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>50,86%</t>
+          <t>50,76%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -14010,12 +14010,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>348317</t>
+          <t>346956</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>386888</t>
+          <t>384782</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -14025,12 +14025,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>48,93%</t>
+          <t>48,74%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>54,35%</t>
+          <t>54,05%</t>
         </is>
       </c>
     </row>
@@ -14175,7 +14175,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>520</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -14190,7 +14190,7 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -14210,7 +14210,7 @@
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>3441</t>
+          <t>3370</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -14225,7 +14225,7 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -14240,12 +14240,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>101</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>2973</t>
+          <t>3726</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -14255,12 +14255,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,02%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>0,73%</t>
         </is>
       </c>
     </row>
@@ -14318,12 +14318,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>8325</t>
+          <t>8287</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>18702</t>
+          <t>19730</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -14333,12 +14333,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -14353,12 +14353,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>8349</t>
+          <t>8144</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>19434</t>
+          <t>19838</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -14368,12 +14368,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>3,91%</t>
         </is>
       </c>
     </row>
@@ -14396,12 +14396,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1211</t>
+          <t>1186</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>6436</t>
+          <t>6283</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -14411,12 +14411,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -14431,12 +14431,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>3400</t>
+          <t>3662</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>10296</t>
+          <t>10494</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -14446,12 +14446,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -14466,12 +14466,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>5733</t>
+          <t>5718</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>14123</t>
+          <t>13849</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -14486,7 +14486,7 @@
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>2,73%</t>
         </is>
       </c>
     </row>
@@ -14509,12 +14509,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>611</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>4226</t>
+          <t>4684</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -14524,12 +14524,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -14544,12 +14544,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>2249</t>
+          <t>2362</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>8475</t>
+          <t>8659</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -14559,12 +14559,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -14579,12 +14579,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>3612</t>
+          <t>3691</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>10925</t>
+          <t>10591</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -14594,12 +14594,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>2,09%</t>
         </is>
       </c>
     </row>
@@ -14622,12 +14622,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>29596</t>
+          <t>29731</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>43480</t>
+          <t>43348</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -14637,12 +14637,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>13,18%</t>
+          <t>13,24%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>19,36%</t>
+          <t>19,3%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -14657,12 +14657,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>28722</t>
+          <t>29538</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>43327</t>
+          <t>43374</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -14672,12 +14672,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>10,16%</t>
+          <t>10,45%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>15,33%</t>
+          <t>15,34%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -14692,12 +14692,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>61213</t>
+          <t>61263</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>80495</t>
+          <t>80963</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -14707,12 +14707,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>12,07%</t>
+          <t>12,08%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>15,87%</t>
+          <t>15,96%</t>
         </is>
       </c>
     </row>
@@ -14735,12 +14735,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>4624</t>
+          <t>4611</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>12833</t>
+          <t>13289</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -14750,12 +14750,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -14770,12 +14770,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>11347</t>
+          <t>11389</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>22892</t>
+          <t>22458</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -14785,12 +14785,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -14805,12 +14805,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>17632</t>
+          <t>17942</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>31780</t>
+          <t>32214</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -14820,12 +14820,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>6,35%</t>
         </is>
       </c>
     </row>
@@ -14848,12 +14848,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>166720</t>
+          <t>167024</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>182881</t>
+          <t>182939</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -14863,12 +14863,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>74,23%</t>
+          <t>74,36%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>81,42%</t>
+          <t>81,45%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -14883,12 +14883,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>196513</t>
+          <t>196124</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>216475</t>
+          <t>216327</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -14898,12 +14898,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>69,52%</t>
+          <t>69,38%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>76,58%</t>
+          <t>76,53%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -14918,12 +14918,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>369381</t>
+          <t>368298</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>395586</t>
+          <t>394775</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -14933,12 +14933,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>72,82%</t>
+          <t>72,6%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>77,98%</t>
+          <t>77,82%</t>
         </is>
       </c>
     </row>
@@ -15078,12 +15078,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>832</t>
+          <t>773</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>8997</t>
+          <t>9254</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -15093,12 +15093,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -15113,12 +15113,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>1212</t>
+          <t>1298</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>13010</t>
+          <t>11917</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -15128,12 +15128,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -15148,12 +15148,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>3308</t>
+          <t>3166</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>15426</t>
+          <t>15634</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -15163,12 +15163,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>1,09%</t>
         </is>
       </c>
     </row>
@@ -15191,12 +15191,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>352</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>5472</t>
+          <t>5214</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -15211,7 +15211,7 @@
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -15226,12 +15226,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>76574</t>
+          <t>76776</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>106978</t>
+          <t>107116</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -15241,12 +15241,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>10,13%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>14,14%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -15261,12 +15261,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>77547</t>
+          <t>77390</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>107043</t>
+          <t>109548</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -15276,12 +15276,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>7,62%</t>
         </is>
       </c>
     </row>
@@ -15304,12 +15304,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>28196</t>
+          <t>28396</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>43338</t>
+          <t>43755</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -15319,12 +15319,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -15339,12 +15339,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>31666</t>
+          <t>32454</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>47820</t>
+          <t>48825</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -15354,12 +15354,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -15374,12 +15374,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>64070</t>
+          <t>63560</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>87644</t>
+          <t>84784</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -15389,12 +15389,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>5,9%</t>
         </is>
       </c>
     </row>
@@ -15417,12 +15417,12 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>21347</t>
+          <t>21470</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>41522</t>
+          <t>43292</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -15432,12 +15432,12 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -15452,12 +15452,12 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>21078</t>
+          <t>20698</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>40789</t>
+          <t>39736</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -15467,12 +15467,12 @@
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -15487,12 +15487,12 @@
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>46134</t>
+          <t>46052</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>74821</t>
+          <t>74475</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -15502,12 +15502,12 @@
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>5,18%</t>
         </is>
       </c>
     </row>
@@ -15530,12 +15530,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>123075</t>
+          <t>122253</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>153849</t>
+          <t>153351</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -15545,12 +15545,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>18,09%</t>
+          <t>17,97%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>22,61%</t>
+          <t>22,54%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -15565,12 +15565,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>135441</t>
+          <t>133496</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>168610</t>
+          <t>165899</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -15580,12 +15580,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>17,88%</t>
+          <t>17,62%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>22,25%</t>
+          <t>21,89%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -15600,12 +15600,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>268314</t>
+          <t>262888</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>310658</t>
+          <t>310652</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -15615,7 +15615,7 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>18,66%</t>
+          <t>18,28%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
@@ -15643,12 +15643,12 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>57993</t>
+          <t>57836</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>83166</t>
+          <t>83853</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -15658,12 +15658,12 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>12,22%</t>
+          <t>12,32%</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
@@ -15678,12 +15678,12 @@
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>45904</t>
+          <t>46342</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>65495</t>
+          <t>65979</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -15693,12 +15693,12 @@
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
@@ -15713,12 +15713,12 @@
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>111015</t>
+          <t>110665</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>144790</t>
+          <t>143423</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -15728,12 +15728,12 @@
       </c>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t>7,72%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
-          <t>10,07%</t>
+          <t>9,97%</t>
         </is>
       </c>
     </row>
@@ -15756,12 +15756,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>383324</t>
+          <t>383626</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>422695</t>
+          <t>423313</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -15771,12 +15771,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>56,34%</t>
+          <t>56,38%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>62,12%</t>
+          <t>62,21%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -15791,12 +15791,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>368170</t>
+          <t>368882</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>410993</t>
+          <t>409333</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -15806,12 +15806,12 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>48,59%</t>
+          <t>48,68%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>54,24%</t>
+          <t>54,02%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -15826,12 +15826,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>762945</t>
+          <t>765997</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>820637</t>
+          <t>823701</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -15841,12 +15841,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>53,05%</t>
+          <t>53,26%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>57,06%</t>
+          <t>57,28%</t>
         </is>
       </c>
     </row>
